--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20250929_235335.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20250929_235335.xlsx
@@ -5227,7 +5227,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
